--- a/code/server/010.codegen/model/duzhou-app-modeler.app-module.xlsx
+++ b/code/server/010.codegen/model/duzhou-app-modeler.app-module.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>app.module.webStarterType</t>
   </si>
   <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>可选值：spring, quarkus</t>
+    <t>undertow</t>
+  </si>
+  <si>
+    <t>可选值：spring, undertow</t>
   </si>
   <si>
     <t>app.module.displayName</t>
@@ -956,10 +956,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -983,9 +983,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,7 +999,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,7 +1067,46 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,106 +1120,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,139 +1196,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,19 +1226,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,6 +1655,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1677,16 +1695,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1702,35 +1720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1739,151 +1739,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2490,10 +2490,10 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.25" style="2" customWidth="1"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C15" s="91"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="33" spans="1:3">
+    <row r="16" s="2" customFormat="1" ht="30" spans="1:3">
       <c r="A16" s="91" t="s">
         <v>31</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="12">
         <v>2</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="N10" s="46"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="11" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="N11" s="47"/>
       <c r="O11" s="55"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="N12" s="47"/>
       <c r="O12" s="55"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="13" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="N13" s="47"/>
       <c r="O13" s="55"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="33" spans="1:15">
+    <row r="14" s="2" customFormat="1" ht="30" spans="1:15">
       <c r="A14" s="15">
         <v>6</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="N14" s="47"/>
       <c r="O14" s="55"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="N15" s="45"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:15">
+    <row r="16" s="1" customFormat="1" ht="28.5" spans="1:15">
       <c r="A16" s="10">
         <v>8</v>
       </c>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A17" s="10">
         <v>9</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="N17" s="45"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -3189,7 +3189,7 @@
       <c r="N18" s="45"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -3206,7 +3206,7 @@
       <c r="N19" s="45"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -3223,7 +3223,7 @@
       <c r="N20" s="45"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -3240,7 +3240,7 @@
       <c r="N21" s="45"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -3257,7 +3257,7 @@
       <c r="N22" s="45"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -4552,7 +4552,7 @@
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" ht="15" spans="1:7">
       <c r="A9" s="73"/>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -4791,7 +4791,7 @@
       <c r="F23" s="88"/>
       <c r="G23" s="88"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" ht="15" spans="1:7">
       <c r="A24" s="73"/>
       <c r="B24" s="79"/>
       <c r="C24" s="79"/>
@@ -4933,7 +4933,7 @@
       <c r="F33" s="88"/>
       <c r="G33" s="88"/>
     </row>
-    <row r="34" ht="16.5" spans="1:7">
+    <row r="34" ht="15" spans="1:7">
       <c r="A34" s="73"/>
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
@@ -5083,7 +5083,7 @@
       <c r="F43" s="88"/>
       <c r="G43" s="88"/>
     </row>
-    <row r="44" ht="16.5" spans="1:7">
+    <row r="44" ht="15" spans="1:7">
       <c r="A44" s="73"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
@@ -5357,7 +5357,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="10">
         <v>2</v>
       </c>
@@ -5417,7 +5417,7 @@
       <c r="N10" s="45"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A11" s="10">
         <v>3</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="N11" s="45"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="N12" s="47"/>
       <c r="O12" s="55"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="13" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="N14" s="65"/>
       <c r="O14" s="66"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="15" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="N15" s="47"/>
       <c r="O15" s="55"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="82.5" spans="1:15">
+    <row r="16" s="2" customFormat="1" ht="75" spans="1:15">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="O16" s="55"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="17" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="N17" s="47"/>
       <c r="O17" s="55"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A18" s="10">
         <v>10</v>
       </c>
@@ -5657,7 +5657,7 @@
       <c r="N18" s="45"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A19" s="10">
         <v>11</v>
       </c>
@@ -5686,7 +5686,7 @@
       <c r="N19" s="45"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -5703,7 +5703,7 @@
       <c r="N20" s="45"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -5720,7 +5720,7 @@
       <c r="N21" s="45"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -5737,7 +5737,7 @@
       <c r="N22" s="45"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -6682,7 +6682,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="12">
         <v>2</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="N10" s="46"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="11" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="N11" s="47"/>
       <c r="O11" s="55"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -6804,7 +6804,7 @@
       <c r="N12" s="47"/>
       <c r="O12" s="55"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A13" s="10">
         <v>5</v>
       </c>
@@ -6831,7 +6831,7 @@
       <c r="N13" s="45"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A14" s="10">
         <v>6</v>
       </c>
@@ -6860,7 +6860,7 @@
       <c r="N14" s="45"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -6885,7 +6885,7 @@
       <c r="N15" s="45"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A16" s="10">
         <v>8</v>
       </c>
@@ -6910,7 +6910,7 @@
       <c r="N16" s="45"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -6927,7 +6927,7 @@
       <c r="N17" s="45"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -6944,7 +6944,7 @@
       <c r="N18" s="45"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -6961,7 +6961,7 @@
       <c r="N19" s="45"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -7915,7 +7915,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -7948,7 +7948,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="12">
         <v>2</v>
       </c>
@@ -7977,7 +7977,7 @@
       <c r="N10" s="46"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="11" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="N11" s="47"/>
       <c r="O11" s="55"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="33" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="30" spans="1:15">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="O12" s="55"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="13" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -8068,7 +8068,7 @@
       <c r="N13" s="47"/>
       <c r="O13" s="55"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A14" s="10">
         <v>6</v>
       </c>
@@ -8097,7 +8097,7 @@
       <c r="N14" s="45"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -8114,7 +8114,7 @@
       <c r="N15" s="45"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -8131,7 +8131,7 @@
       <c r="N16" s="45"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -8148,7 +8148,7 @@
       <c r="N17" s="45"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -8165,7 +8165,7 @@
       <c r="N18" s="45"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -8182,7 +8182,7 @@
       <c r="N19" s="45"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -8199,7 +8199,7 @@
       <c r="N20" s="45"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -9154,7 +9154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -9187,7 +9187,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="10">
         <v>2</v>
       </c>
@@ -9214,7 +9214,7 @@
       <c r="N10" s="45"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A11" s="10">
         <v>3</v>
       </c>
@@ -9243,7 +9243,7 @@
       <c r="N11" s="45"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="N12" s="47"/>
       <c r="O12" s="55"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="13" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -9338,7 +9338,7 @@
       <c r="N14" s="65"/>
       <c r="O14" s="66"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A15" s="12">
         <v>7</v>
       </c>
@@ -9367,7 +9367,7 @@
       <c r="N15" s="46"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="16" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -9396,7 +9396,7 @@
       <c r="N16" s="47"/>
       <c r="O16" s="55"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="82.5" spans="1:15">
+    <row r="17" s="2" customFormat="1" ht="75" spans="1:15">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="O17" s="55"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -9444,7 +9444,7 @@
       <c r="N18" s="45"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -10400,7 +10400,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -10433,7 +10433,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="10">
         <v>2</v>
       </c>
@@ -10462,7 +10462,7 @@
       <c r="N10" s="45"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A11" s="10">
         <v>3</v>
       </c>
@@ -10491,7 +10491,7 @@
       <c r="N11" s="45"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -10524,7 +10524,7 @@
       <c r="N12" s="47"/>
       <c r="O12" s="55"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="13" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -10588,7 +10588,7 @@
       <c r="N14" s="65"/>
       <c r="O14" s="66"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A15" s="12">
         <v>7</v>
       </c>
@@ -10617,7 +10617,7 @@
       <c r="N15" s="46"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="16" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -10646,7 +10646,7 @@
       <c r="N16" s="47"/>
       <c r="O16" s="55"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="17" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="N17" s="47"/>
       <c r="O17" s="55"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="18" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -10704,7 +10704,7 @@
       <c r="N18" s="47"/>
       <c r="O18" s="55"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="19" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A19" s="15">
         <v>11</v>
       </c>
@@ -10731,7 +10731,7 @@
       <c r="N19" s="47"/>
       <c r="O19" s="55"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="20" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A20" s="15">
         <v>12</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="N20" s="47"/>
       <c r="O20" s="55"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="21" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A21" s="15">
         <v>13</v>
       </c>
@@ -10785,7 +10785,7 @@
       <c r="N21" s="47"/>
       <c r="O21" s="55"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="22" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -10802,7 +10802,7 @@
       <c r="N22" s="47"/>
       <c r="O22" s="55"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="23" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -10819,7 +10819,7 @@
       <c r="N23" s="47"/>
       <c r="O23" s="55"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
@@ -10836,7 +10836,7 @@
       <c r="N24" s="45"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -11955,7 +11955,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -11988,7 +11988,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="12">
         <v>2</v>
       </c>
@@ -12017,7 +12017,7 @@
       <c r="N10" s="46"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="11" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -12046,7 +12046,7 @@
       <c r="N11" s="47"/>
       <c r="O11" s="55"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A12" s="10">
         <v>4</v>
       </c>
@@ -12075,7 +12075,7 @@
       <c r="N12" s="45"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="13" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -12102,7 +12102,7 @@
       <c r="N13" s="47"/>
       <c r="O13" s="55"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="14" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A14" s="15">
         <v>6</v>
       </c>
@@ -12129,7 +12129,7 @@
       <c r="N14" s="47"/>
       <c r="O14" s="55"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="16.5" spans="1:15">
+    <row r="15" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -12158,7 +12158,7 @@
       <c r="N15" s="47"/>
       <c r="O15" s="55"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A16" s="10">
         <v>8</v>
       </c>
@@ -12187,7 +12187,7 @@
       <c r="N16" s="45"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A17" s="10">
         <v>9</v>
       </c>
@@ -12214,7 +12214,7 @@
       <c r="N17" s="45"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A18" s="10">
         <v>10</v>
       </c>
@@ -12241,7 +12241,7 @@
       <c r="N18" s="45"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A19" s="10">
         <v>11</v>
       </c>
@@ -12268,7 +12268,7 @@
       <c r="N19" s="45"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A20" s="10">
         <v>12</v>
       </c>
@@ -12293,7 +12293,7 @@
       <c r="N20" s="45"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A21" s="10">
         <v>13</v>
       </c>
@@ -12318,7 +12318,7 @@
       <c r="N21" s="45"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A22" s="10">
         <v>14</v>
       </c>
@@ -12345,7 +12345,7 @@
       <c r="N22" s="45"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -12362,7 +12362,7 @@
       <c r="N23" s="45"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:15">
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
